--- a/酷我音乐坐标.xlsx
+++ b/酷我音乐坐标.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>酷我</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>音质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G7"/>
+  <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -375,16 +379,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>468</v>
       </c>
@@ -392,16 +399,19 @@
         <v>733</v>
       </c>
       <c r="E4">
+        <v>1064</v>
+      </c>
+      <c r="F4">
         <v>1022</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>825</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>852</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>176</v>
       </c>
@@ -409,49 +419,102 @@
         <v>202</v>
       </c>
       <c r="E5">
+        <v>206</v>
+      </c>
+      <c r="F5">
         <v>420</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>431</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>676</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D6">
         <f>D4-$C$4</f>
         <v>265</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:G6" si="0">E4-$C$4</f>
+        <f>E4-$C$4</f>
+        <v>596</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:H6" si="0">F4-$C$4</f>
         <v>554</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D7">
         <f>D5-$C$5</f>
         <v>26</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:G7" si="1">E5-$C$5</f>
+        <f>E5-$C$5</f>
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:H7" si="1">F5-$C$5</f>
         <v>244</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1078</v>
+      </c>
+      <c r="D12">
+        <v>1047</v>
+      </c>
+      <c r="E12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>477</v>
+      </c>
+      <c r="D13">
+        <v>510</v>
+      </c>
+      <c r="E13">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f>D12-$C$12</f>
+        <v>-31</v>
+      </c>
+      <c r="E14">
+        <f>E12-$C$12</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f>D13-$C$13</f>
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <f>E13-$C$13</f>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
